--- a/bigcode-evaluation-harness/result/qwen2.5-coder-7b-base.xlsx
+++ b/bigcode-evaluation-harness/result/qwen2.5-coder-7b-base.xlsx
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.7175572519083969</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.6717557251908397</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="15">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D15" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.3103448275862069</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.526</v>
       </c>
     </row>
     <row r="16">
@@ -827,22 +827,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>164</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.7195121951219512</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.7134146341463414</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="17">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D17" t="n">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.7151898734177216</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.5379746835443038</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="18">
@@ -880,19 +880,19 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D18" t="n">
         <v>164</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.7195121951219512</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.4878048780487805</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.322</v>
       </c>
     </row>
     <row r="19">
@@ -902,22 +902,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D19" t="n">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.7195121951219512</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.6951219512195121</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="20">
